--- a/kanabun/data/properties/list.xlsx
+++ b/kanabun/data/properties/list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1669"/>
+  <dimension ref="A1:G1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58885,6 +58885,37 @@
         </is>
       </c>
     </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr"/>
+      <c r="C1670" t="n">
+        <v>1669</v>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>員数</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>ex:number</t>
+        </is>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://kanazawabunko-db.pen-kanagawa.ed.jp/api/vocabularies/6', 'o:id': 6}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
